--- a/Data/EC/NIT-8230043632.xlsx
+++ b/Data/EC/NIT-8230043632.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3872642-A108-4E30-81AE-587E7A797E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5957304-245A-48F2-B50D-4A63E4BC7D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{27BCAFE2-E777-4907-8A0E-FC8BA286BCFC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A5B786F6-EA75-4738-B670-EECEDD75BAF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,61 +65,61 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1052973491</t>
+  </si>
+  <si>
+    <t>RESLY RODRIGUEZ PALENCIA</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>1143339170</t>
+  </si>
+  <si>
+    <t>EDWIN CABARCAS ARIZA</t>
+  </si>
+  <si>
+    <t>92071278</t>
+  </si>
+  <si>
+    <t>NAIN URIEL MENDOZA MEDRANO</t>
+  </si>
+  <si>
+    <t>1193456123</t>
+  </si>
+  <si>
+    <t>ERIKA PATRICIA CASTRO ZABALETA</t>
+  </si>
+  <si>
+    <t>1007275438</t>
+  </si>
+  <si>
+    <t>MILEIDIS POLANCO PADILLA</t>
+  </si>
+  <si>
     <t>1052954248</t>
   </si>
   <si>
     <t>LORENA PATRICIA ROMERO CASTRO</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>1052973491</t>
-  </si>
-  <si>
-    <t>RESLY RODRIGUEZ PALENCIA</t>
-  </si>
-  <si>
-    <t>1143339170</t>
-  </si>
-  <si>
-    <t>EDWIN CABARCAS ARIZA</t>
-  </si>
-  <si>
-    <t>1007275438</t>
-  </si>
-  <si>
-    <t>MILEIDIS POLANCO PADILLA</t>
-  </si>
-  <si>
-    <t>92071278</t>
-  </si>
-  <si>
-    <t>NAIN URIEL MENDOZA MEDRANO</t>
-  </si>
-  <si>
-    <t>1193456123</t>
-  </si>
-  <si>
-    <t>ERIKA PATRICIA CASTRO ZABALETA</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -533,7 +533,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE2D133E-BA3D-E962-7937-A7138F01ED6F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F2FF419-FCFC-3710-2E6D-AEE1BFD94760}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -884,7 +884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E68AB56-09BF-4C43-B06B-8C215B1F7735}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B25D3CB-11E3-402E-8561-582433B231F4}">
   <dimension ref="B2:J60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1062,7 +1062,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>46400</v>
+        <v>25333</v>
       </c>
       <c r="G16" s="18">
         <v>1160000</v>
@@ -1076,13 +1076,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>46400</v>
@@ -1099,13 +1099,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
         <v>46400</v>
@@ -1122,13 +1122,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>46400</v>
@@ -1145,13 +1145,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>46400</v>
@@ -1168,13 +1168,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>46400</v>
@@ -1191,13 +1191,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="F22" s="18">
         <v>46400</v>
@@ -1214,16 +1214,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>46400</v>
+        <v>25333</v>
       </c>
       <c r="G23" s="18">
         <v>1160000</v>
@@ -1237,13 +1237,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F24" s="18">
         <v>46400</v>
@@ -1260,13 +1260,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F25" s="18">
         <v>46400</v>
@@ -1283,13 +1283,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F26" s="18">
         <v>46400</v>
@@ -1312,7 +1312,7 @@
         <v>19</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F27" s="18">
         <v>46400</v>
@@ -1329,13 +1329,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F28" s="18">
         <v>46400</v>
@@ -1352,13 +1352,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F29" s="18">
         <v>46400</v>
@@ -1375,16 +1375,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F30" s="18">
-        <v>46400</v>
+        <v>28728</v>
       </c>
       <c r="G30" s="18">
         <v>1160000</v>
@@ -1398,13 +1398,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F31" s="18">
         <v>46400</v>
@@ -1427,7 +1427,7 @@
         <v>21</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F32" s="18">
         <v>46400</v>
@@ -1444,13 +1444,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="F33" s="18">
         <v>46400</v>
@@ -1467,13 +1467,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F34" s="18">
         <v>46400</v>
@@ -1490,13 +1490,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F35" s="18">
         <v>46400</v>
@@ -1513,13 +1513,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F36" s="18">
         <v>46400</v>
@@ -1536,13 +1536,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F37" s="18">
         <v>46400</v>
@@ -1559,13 +1559,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F38" s="18">
         <v>46400</v>
@@ -1582,13 +1582,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F39" s="18">
         <v>46400</v>
@@ -1605,13 +1605,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D40" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="F40" s="18">
         <v>46400</v>
@@ -1628,16 +1628,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F41" s="18">
-        <v>46400</v>
+        <v>29387</v>
       </c>
       <c r="G41" s="18">
         <v>1160000</v>
@@ -1651,13 +1651,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F42" s="18">
         <v>46400</v>
@@ -1674,13 +1674,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D43" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="F43" s="18">
         <v>46400</v>
@@ -1697,13 +1697,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F44" s="18">
         <v>46400</v>
@@ -1720,13 +1720,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F45" s="18">
         <v>46400</v>
@@ -1743,13 +1743,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F46" s="18">
         <v>46400</v>
@@ -1766,13 +1766,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F47" s="18">
         <v>46400</v>
@@ -1789,16 +1789,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F48" s="18">
-        <v>46400</v>
+        <v>29387</v>
       </c>
       <c r="G48" s="18">
         <v>1160000</v>
@@ -1812,13 +1812,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F49" s="18">
         <v>46400</v>
@@ -1835,16 +1835,16 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F50" s="18">
-        <v>25333</v>
+        <v>46400</v>
       </c>
       <c r="G50" s="18">
         <v>1160000</v>
@@ -1858,16 +1858,16 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F51" s="18">
-        <v>29387</v>
+        <v>46400</v>
       </c>
       <c r="G51" s="18">
         <v>1160000</v>
@@ -1881,16 +1881,16 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F52" s="18">
-        <v>25333</v>
+        <v>46400</v>
       </c>
       <c r="G52" s="18">
         <v>1160000</v>
@@ -1904,16 +1904,16 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F53" s="18">
-        <v>29387</v>
+        <v>46400</v>
       </c>
       <c r="G53" s="18">
         <v>1160000</v>
@@ -1927,16 +1927,16 @@
         <v>8</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F54" s="24">
-        <v>28728</v>
+        <v>46400</v>
       </c>
       <c r="G54" s="24">
         <v>1160000</v>
